--- a/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>29.459168615063845</v>
+        <v>29.45916859808699</v>
       </c>
       <c r="C2">
-        <v>23.39083614137752</v>
+        <v>23.390836157317949</v>
       </c>
       <c r="D2">
-        <v>21.164358603821313</v>
+        <v>21.164358639724867</v>
       </c>
       <c r="E2">
-        <v>17.420932478046439</v>
+        <v>17.420932495386637</v>
       </c>
       <c r="F2">
-        <v>17.792449337562061</v>
+        <v>17.792449349582114</v>
       </c>
       <c r="G2">
-        <v>30.284736587106977</v>
+        <v>30.284736595080915</v>
       </c>
       <c r="H2">
-        <v>14.396037969188058</v>
+        <v>14.396037986289059</v>
       </c>
       <c r="I2">
-        <v>22.111268543784263</v>
+        <v>22.111268544956886</v>
       </c>
       <c r="J2">
-        <v>24.164743779977016</v>
+        <v>24.16474381863145</v>
       </c>
       <c r="K2">
-        <v>27.632330439598491</v>
+        <v>27.63233044723205</v>
       </c>
       <c r="L2">
-        <v>38.613580804356218</v>
+        <v>38.613580821157882</v>
       </c>
       <c r="M2">
-        <v>30.928259666097063</v>
+        <v>30.928259662559753</v>
       </c>
       <c r="N2">
-        <v>23.819199980000292</v>
+        <v>23.81919998984614</v>
       </c>
       <c r="O2">
-        <v>12.767041741404455</v>
+        <v>12.76704177109491</v>
       </c>
       <c r="P2">
-        <v>17.176687054069816</v>
+        <v>17.176687042559195</v>
       </c>
       <c r="Q2">
-        <v>39.289622316631892</v>
+        <v>39.289622334438491</v>
       </c>
       <c r="R2">
-        <v>24.828699091776684</v>
+        <v>24.82869911336519</v>
       </c>
       <c r="S2">
-        <v>14.307968540555976</v>
+        <v>14.30796853689202</v>
       </c>
       <c r="T2">
-        <v>10.974644420939399</v>
+        <v>10.974644408684185</v>
       </c>
       <c r="U2">
-        <v>24.436982642556188</v>
+        <v>24.436982663416757</v>
       </c>
       <c r="V2">
-        <v>22.362161480452869</v>
+        <v>22.362161499502122</v>
       </c>
       <c r="W2">
-        <v>30.699587756574545</v>
+        <v>30.69958779884422</v>
       </c>
       <c r="X2">
-        <v>26.749345589089671</v>
+        <v>26.749345609902832</v>
       </c>
       <c r="Y2">
-        <v>5.8282082306267284</v>
+        <v>5.8282082537431847</v>
       </c>
       <c r="Z2">
-        <v>15.759675526664466</v>
+        <v>15.759675542220975</v>
       </c>
       <c r="AA2">
-        <v>20.165735691941109</v>
+        <v>20.16573583782224</v>
       </c>
       <c r="AB2">
-        <v>20.068815956699666</v>
+        <v>20.068816006226086</v>
       </c>
       <c r="AC2">
-        <v>28.694833933090763</v>
+        <v>28.694833971036815</v>
       </c>
       <c r="AD2">
-        <v>10.214611495064219</v>
+        <v>10.214611553090265</v>
       </c>
       <c r="AE2">
-        <v>24.59225947594507</v>
+        <v>24.59225948147639</v>
       </c>
       <c r="AF2">
-        <v>18.067848978234849</v>
+        <v>18.067849006698395</v>
       </c>
       <c r="AG2">
-        <v>17.259421040120515</v>
+        <v>17.259421108355241</v>
       </c>
       <c r="AH2">
-        <v>14.590910637891511</v>
+        <v>14.59091066654446</v>
       </c>
       <c r="AI2">
-        <v>22.418106748723915</v>
+        <v>22.418106802662123</v>
       </c>
       <c r="AJ2">
-        <v>20.869479461993649</v>
+        <v>20.869479497189332</v>
       </c>
       <c r="AK2">
-        <v>25.45278627670433</v>
+        <v>25.452786297877708</v>
       </c>
       <c r="AL2">
-        <v>34.944641178309269</v>
+        <v>34.944641213421562</v>
       </c>
       <c r="AM2">
-        <v>15.621528755371401</v>
+        <v>15.621528783809993</v>
       </c>
       <c r="AN2">
-        <v>16.319241473870477</v>
+        <v>16.319241496970676</v>
       </c>
       <c r="AO2">
-        <v>11.088427012921102</v>
+        <v>11.088427070442265</v>
       </c>
       <c r="AP2">
-        <v>14.279135028993096</v>
+        <v>14.279135057973292</v>
       </c>
       <c r="AQ2">
-        <v>27.474127389926878</v>
+        <v>27.474127446193449</v>
       </c>
       <c r="AR2">
-        <v>12.835820642961664</v>
+        <v>12.835820649335574</v>
       </c>
       <c r="AS2">
-        <v>15.350120256286743</v>
+        <v>15.350120337668443</v>
       </c>
       <c r="AT2">
-        <v>17.043589399026587</v>
+        <v>17.043589425318828</v>
       </c>
       <c r="AU2">
-        <v>13.734906559385593</v>
+        <v>13.734906564380083</v>
       </c>
       <c r="AV2">
-        <v>17.18355265839665</v>
+        <v>17.18355276403156</v>
       </c>
       <c r="AW2">
-        <v>20.74682280909775</v>
+        <v>20.74682282566431</v>
       </c>
       <c r="AX2">
-        <v>14.687066356417006</v>
+        <v>14.687066394792794</v>
       </c>
       <c r="AY2">
-        <v>7.239483957518928</v>
+        <v>7.2394839865469862</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>28.0118611631421</v>
+        <v>28.011861183376595</v>
       </c>
       <c r="C3">
-        <v>26.182226971787145</v>
+        <v>26.182226985637953</v>
       </c>
       <c r="D3">
-        <v>11.957469382581792</v>
+        <v>11.957469406210237</v>
       </c>
       <c r="E3">
-        <v>14.63952756545433</v>
+        <v>14.639527565182789</v>
       </c>
       <c r="F3">
-        <v>19.091621062499428</v>
+        <v>19.091621088428838</v>
       </c>
       <c r="G3">
-        <v>17.291835890302536</v>
+        <v>17.291835906374672</v>
       </c>
       <c r="H3">
-        <v>28.781429473825597</v>
+        <v>28.781429487045102</v>
       </c>
       <c r="I3">
-        <v>24.258816971533179</v>
+        <v>24.258816981924326</v>
       </c>
       <c r="J3">
-        <v>19.344599806875465</v>
+        <v>19.344599849043675</v>
       </c>
       <c r="K3">
-        <v>-4.5668594101916256</v>
+        <v>-4.5668593888190117</v>
       </c>
       <c r="L3">
-        <v>18.971068370354601</v>
+        <v>18.971068398191733</v>
       </c>
       <c r="M3">
-        <v>29.743311436664328</v>
+        <v>29.743314805303044</v>
       </c>
       <c r="N3">
-        <v>21.358752969655484</v>
+        <v>21.358752986927641</v>
       </c>
       <c r="O3">
-        <v>27.352898413807395</v>
+        <v>27.352898427802131</v>
       </c>
       <c r="P3">
-        <v>16.21028747829348</v>
+        <v>16.210287506818531</v>
       </c>
       <c r="Q3">
-        <v>19.280331552861526</v>
+        <v>19.280331572817317</v>
       </c>
       <c r="R3">
-        <v>31.332085059316285</v>
+        <v>31.332085099570122</v>
       </c>
       <c r="S3">
-        <v>12.764520740987734</v>
+        <v>12.764520743805008</v>
       </c>
       <c r="T3">
-        <v>15.569950684318201</v>
+        <v>15.569950702795609</v>
       </c>
       <c r="U3">
-        <v>15.233175531045333</v>
+        <v>15.233175540366631</v>
       </c>
       <c r="V3">
-        <v>13.994274448948602</v>
+        <v>13.994274460682163</v>
       </c>
       <c r="W3">
-        <v>21.431993477572348</v>
+        <v>21.431993512493364</v>
       </c>
       <c r="X3">
-        <v>27.051624898691614</v>
+        <v>27.051624915234243</v>
       </c>
       <c r="Y3">
-        <v>3.3237583715118717</v>
+        <v>3.3237584030779885</v>
       </c>
       <c r="Z3">
-        <v>8.9038607824384144</v>
+        <v>8.9038607972729551</v>
       </c>
       <c r="AA3">
-        <v>19.498375661900752</v>
+        <v>19.498375639666563</v>
       </c>
       <c r="AB3">
-        <v>18.43107761863962</v>
+        <v>18.431077653541763</v>
       </c>
       <c r="AC3">
-        <v>20.515386327933129</v>
+        <v>20.515386330836634</v>
       </c>
       <c r="AD3">
-        <v>17.602952210498984</v>
+        <v>17.602952269131777</v>
       </c>
       <c r="AE3">
-        <v>16.589944431073093</v>
+        <v>16.58994444828204</v>
       </c>
       <c r="AF3">
-        <v>23.067708110832541</v>
+        <v>23.067708140215757</v>
       </c>
       <c r="AG3">
-        <v>22.87324485253157</v>
+        <v>22.873244855918813</v>
       </c>
       <c r="AH3">
-        <v>26.816603249389686</v>
+        <v>26.81660330799167</v>
       </c>
       <c r="AI3">
-        <v>3.1883905334628366</v>
+        <v>3.1883905937388022</v>
       </c>
       <c r="AJ3">
-        <v>18.262670177614609</v>
+        <v>18.262670205213624</v>
       </c>
       <c r="AK3">
-        <v>29.040618720527618</v>
+        <v>29.040618739468641</v>
       </c>
       <c r="AL3">
-        <v>20.650178870812113</v>
+        <v>20.650178893572104</v>
       </c>
       <c r="AM3">
-        <v>15.794169960279703</v>
+        <v>15.794170038206403</v>
       </c>
       <c r="AN3">
-        <v>34.168458302448414</v>
+        <v>34.168458340991492</v>
       </c>
       <c r="AO3">
-        <v>15.776082826633285</v>
+        <v>15.776082856866367</v>
       </c>
       <c r="AP3">
-        <v>22.236703644006354</v>
+        <v>22.236703687325644</v>
       </c>
       <c r="AQ3">
-        <v>17.32002030855557</v>
+        <v>17.320020338226129</v>
       </c>
       <c r="AR3">
-        <v>11.439287031187689</v>
+        <v>11.439287038106784</v>
       </c>
       <c r="AS3">
-        <v>25.028604916378356</v>
+        <v>25.028604985087782</v>
       </c>
       <c r="AT3">
-        <v>10.141117580582716</v>
+        <v>10.141117636299214</v>
       </c>
       <c r="AU3">
-        <v>24.621523388910418</v>
+        <v>24.621523428172281</v>
       </c>
       <c r="AV3">
-        <v>21.325887840472546</v>
+        <v>21.325887931631826</v>
       </c>
       <c r="AW3">
-        <v>25.480796825515029</v>
+        <v>25.480796889612975</v>
       </c>
       <c r="AX3">
-        <v>23.688429180472838</v>
+        <v>23.688429228641155</v>
       </c>
       <c r="AY3">
-        <v>4.2833138577856857</v>
+        <v>4.2833138676537033</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>29.45916859808699</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>23.390836157317949</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>21.164358639724867</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>17.420932495386637</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>17.792449349582114</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>30.284736595080915</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>14.396037986289059</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>22.111268544956886</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>24.16474381863145</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>27.63233044723205</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>38.613580821157882</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>30.928259662559753</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>23.81919998984614</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.76704177109491</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>17.176687042559195</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>39.289622334438491</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>24.82869911336519</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>14.30796853689202</v>
+        <v>21.936434977302781</v>
       </c>
       <c r="T2">
         <v>10.974644408684185</v>
@@ -588,55 +477,55 @@
         <v>15.759675542220975</v>
       </c>
       <c r="AA2">
-        <v>20.16573583782224</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>20.068816006226086</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>28.694833971036815</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>10.214611553090265</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>24.59225948147639</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>18.067849006698395</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>17.259421108355241</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>14.59091066654446</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>22.418106802662123</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>20.869479497189332</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>25.452786297877708</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>34.944641213421562</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>15.621528783809993</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>16.319241496970676</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>11.088427070442265</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>14.279135057973292</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>27.474127446193449</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>12.835820649335574</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>28.011861183376595</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>26.182226985637953</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>11.957469406210237</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>14.639527565182789</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>19.091621088428838</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>17.291835906374672</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>28.781429487045102</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>24.258816981924326</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>19.344599849043675</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-4.5668593888190117</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>18.971068398191733</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>29.743314805303044</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>21.358752986927641</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>27.352898427802131</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>16.210287506818531</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>19.280331572817317</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>31.332085099570122</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>12.764520743805008</v>
@@ -743,55 +629,55 @@
         <v>8.9038607972729551</v>
       </c>
       <c r="AA3">
-        <v>19.498375639666563</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>18.431077653541763</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>20.515386330836634</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>17.602952269131777</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>16.58994444828204</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>23.067708140215757</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>22.873244855918813</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>26.81660330799167</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>3.1883905937388022</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>18.262670205213624</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>29.040618739468641</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>20.650178893572104</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>15.794170038206403</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>34.168458340991492</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>15.776082856866367</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>22.236703687325644</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>17.320020338226129</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>11.439287038106784</v>

--- a/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>29.459168615063845</v>
-      </c>
       <c r="C2">
-        <v>25.833172888276067</v>
-      </c>
-      <c r="D2">
-        <v>21.164358603821313</v>
-      </c>
-      <c r="E2">
-        <v>17.420932478046439</v>
+        <v>24.82869911336519</v>
       </c>
       <c r="F2">
         <v>17.792449337562061</v>
@@ -673,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>28.0118611631421</v>
+        <v>22.112663767150138</v>
       </c>
       <c r="C3">
-        <v>26.182226971787145</v>
+        <v>31.332085099570122</v>
       </c>
       <c r="D3">
-        <v>11.957469382581792</v>
+        <v>33.035550857034877</v>
       </c>
       <c r="E3">
-        <v>14.63952756545433</v>
+        <v>16.342677613145952</v>
       </c>
       <c r="F3">
         <v>19.091621062499428</v>

--- a/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>29.459168615063845</v>
-      </c>
-      <c r="C2">
-        <v>25.833172888276067</v>
+        <v>24.680170421538492</v>
       </c>
       <c r="D2">
-        <v>21.164358603821313</v>
-      </c>
-      <c r="E2">
-        <v>17.420932478046439</v>
+        <v>15.621528783809993</v>
       </c>
       <c r="F2">
         <v>17.792449337562061</v>
@@ -661,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>28.0118611631421</v>
+        <v>21.358752986927641</v>
       </c>
       <c r="C3">
-        <v>26.182226971787145</v>
+        <v>22.112663767150138</v>
       </c>
       <c r="D3">
-        <v>11.957469382581792</v>
+        <v>15.794170038206403</v>
       </c>
       <c r="E3">
-        <v>8.9207093400294752</v>
+        <v>33.035550857034877</v>
       </c>
       <c r="F3">
         <v>19.091621062499428</v>

--- a/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,136 +513,142 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>29.45916859808699</v>
+      </c>
+      <c r="C2">
+        <v>25.833172903122545</v>
+      </c>
+      <c r="D2">
+        <v>21.164358639724867</v>
+      </c>
+      <c r="E2">
+        <v>17.420932495386637</v>
+      </c>
+      <c r="F2">
+        <v>17.792449349582114</v>
+      </c>
+      <c r="G2">
+        <v>26.698326509378376</v>
+      </c>
+      <c r="H2">
+        <v>14.396037986289059</v>
+      </c>
+      <c r="I2">
+        <v>18.211153513337081</v>
+      </c>
+      <c r="J2">
+        <v>24.16474381863145</v>
+      </c>
+      <c r="K2">
+        <v>27.63233044723205</v>
+      </c>
+      <c r="L2">
+        <v>37.535940335253656</v>
+      </c>
+      <c r="M2">
+        <v>24.437545064985102</v>
+      </c>
+      <c r="N2">
         <v>24.680170421538492</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>15.828739417670363</v>
+      </c>
+      <c r="Q2">
+        <v>39.289622334438491</v>
+      </c>
+      <c r="R2">
+        <v>24.82869911336519</v>
+      </c>
+      <c r="T2">
+        <v>14.085819681201428</v>
+      </c>
+      <c r="U2">
+        <v>24.436982663416757</v>
+      </c>
+      <c r="V2">
+        <v>19.467292361949433</v>
+      </c>
+      <c r="W2">
+        <v>30.69958779884422</v>
+      </c>
+      <c r="X2">
+        <v>26.749345609902832</v>
+      </c>
+      <c r="Y2">
+        <v>5.8282082537431847</v>
+      </c>
+      <c r="Z2">
+        <v>15.759675542220975</v>
+      </c>
+      <c r="AA2">
+        <v>20.16573583782224</v>
+      </c>
+      <c r="AB2">
+        <v>20.068816006226086</v>
+      </c>
+      <c r="AC2">
+        <v>28.694833971036815</v>
+      </c>
+      <c r="AD2">
+        <v>10.214611553090265</v>
+      </c>
+      <c r="AE2">
+        <v>24.59225948147639</v>
+      </c>
+      <c r="AF2">
+        <v>18.067849006698395</v>
+      </c>
+      <c r="AG2">
+        <v>17.259421108355241</v>
+      </c>
+      <c r="AH2">
+        <v>14.59091066654446</v>
+      </c>
+      <c r="AI2">
+        <v>22.418106802662123</v>
+      </c>
+      <c r="AJ2">
+        <v>20.869479497189332</v>
+      </c>
+      <c r="AK2">
+        <v>25.452786297877708</v>
+      </c>
+      <c r="AL2">
+        <v>34.944641213421562</v>
+      </c>
+      <c r="AM2">
         <v>15.621528783809993</v>
       </c>
-      <c r="F2">
-        <v>17.792449337562061</v>
-      </c>
-      <c r="G2">
-        <v>26.698326508590128</v>
-      </c>
-      <c r="H2">
-        <v>14.396037969188058</v>
-      </c>
-      <c r="I2">
-        <v>18.211153524426834</v>
-      </c>
-      <c r="J2">
-        <v>24.164743779977016</v>
-      </c>
-      <c r="K2">
-        <v>27.632330439598491</v>
-      </c>
-      <c r="L2">
-        <v>37.535940306414375</v>
-      </c>
-      <c r="M2">
-        <v>24.43754507266766</v>
-      </c>
-      <c r="N2">
-        <v>24.680170402622764</v>
-      </c>
-      <c r="P2">
-        <v>15.828739420828583</v>
-      </c>
-      <c r="Q2">
-        <v>39.289622316631892</v>
-      </c>
-      <c r="R2">
-        <v>24.828699091776684</v>
-      </c>
-      <c r="T2">
-        <v>14.085819687581875</v>
-      </c>
-      <c r="U2">
-        <v>24.436982642556188</v>
-      </c>
-      <c r="V2">
-        <v>19.467292332020008</v>
-      </c>
-      <c r="W2">
-        <v>30.699587756574545</v>
-      </c>
-      <c r="X2">
-        <v>26.749345589089671</v>
-      </c>
-      <c r="Y2">
-        <v>5.8282082306267284</v>
-      </c>
-      <c r="Z2">
-        <v>15.759675526664466</v>
-      </c>
-      <c r="AA2">
-        <v>20.165735691941109</v>
-      </c>
-      <c r="AB2">
-        <v>20.068815956699666</v>
-      </c>
-      <c r="AC2">
-        <v>28.694833933090763</v>
-      </c>
-      <c r="AD2">
-        <v>10.214611495064219</v>
-      </c>
-      <c r="AE2">
-        <v>24.59225947594507</v>
-      </c>
-      <c r="AF2">
-        <v>18.067848978234849</v>
-      </c>
-      <c r="AG2">
-        <v>17.259421040120515</v>
-      </c>
-      <c r="AH2">
-        <v>14.590910637891511</v>
-      </c>
-      <c r="AI2">
-        <v>22.418106748723915</v>
-      </c>
-      <c r="AJ2">
-        <v>20.869479461993649</v>
-      </c>
-      <c r="AK2">
-        <v>25.45278627670433</v>
-      </c>
-      <c r="AL2">
-        <v>34.944641178309269</v>
-      </c>
-      <c r="AM2">
-        <v>15.621528755371401</v>
-      </c>
       <c r="AO2">
-        <v>11.088427012921102</v>
+        <v>11.088427070442265</v>
       </c>
       <c r="AP2">
-        <v>12.26170059965267</v>
+        <v>12.261700623477907</v>
       </c>
       <c r="AR2">
-        <v>12.835820642961664</v>
+        <v>12.835820649335574</v>
       </c>
       <c r="AS2">
-        <v>15.350120256286743</v>
+        <v>15.350120337668443</v>
       </c>
       <c r="AT2">
-        <v>17.043589399026587</v>
+        <v>17.043589425318828</v>
       </c>
       <c r="AU2">
-        <v>19.356997316647039</v>
+        <v>19.356997307865072</v>
       </c>
       <c r="AV2">
-        <v>17.18355265839665</v>
+        <v>17.18355276403156</v>
       </c>
       <c r="AW2">
-        <v>20.74682280909775</v>
+        <v>20.74682282566431</v>
       </c>
       <c r="AX2">
-        <v>14.687066356417006</v>
+        <v>14.687066394792794</v>
       </c>
       <c r="AY2">
-        <v>7.239483957518928</v>
+        <v>7.2394839865469862</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -650,154 +656,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>28.011861183376595</v>
+      </c>
+      <c r="C3">
+        <v>26.182226985637953</v>
+      </c>
+      <c r="D3">
+        <v>11.957469406210237</v>
+      </c>
+      <c r="E3">
+        <v>8.9207093394919639</v>
+      </c>
+      <c r="F3">
+        <v>19.091621088428838</v>
+      </c>
+      <c r="G3">
+        <v>17.291835906374672</v>
+      </c>
+      <c r="H3">
+        <v>28.781429487045102</v>
+      </c>
+      <c r="I3">
+        <v>24.258816981924326</v>
+      </c>
+      <c r="J3">
+        <v>19.344599849043675</v>
+      </c>
+      <c r="K3">
+        <v>-1.2445766352697092</v>
+      </c>
+      <c r="L3">
+        <v>18.971068398191733</v>
+      </c>
+      <c r="M3">
+        <v>33.701104734593059</v>
+      </c>
+      <c r="N3">
         <v>21.358752986927641</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>22.112663767150138</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>16.210287506818531</v>
+      </c>
+      <c r="Q3">
+        <v>19.280331572817317</v>
+      </c>
+      <c r="R3">
+        <v>31.332085099570122</v>
+      </c>
+      <c r="S3">
+        <v>12.764520743805008</v>
+      </c>
+      <c r="T3">
+        <v>15.569950702795609</v>
+      </c>
+      <c r="U3">
+        <v>15.233175540366631</v>
+      </c>
+      <c r="V3">
+        <v>12.341135895184721</v>
+      </c>
+      <c r="W3">
+        <v>21.431993512493364</v>
+      </c>
+      <c r="X3">
+        <v>27.051624915234243</v>
+      </c>
+      <c r="Y3">
+        <v>3.3237584030779885</v>
+      </c>
+      <c r="Z3">
+        <v>8.9038607972729551</v>
+      </c>
+      <c r="AA3">
+        <v>19.498375639666563</v>
+      </c>
+      <c r="AB3">
+        <v>18.431077653541763</v>
+      </c>
+      <c r="AC3">
+        <v>20.515386330836634</v>
+      </c>
+      <c r="AD3">
+        <v>17.602952269131777</v>
+      </c>
+      <c r="AE3">
+        <v>16.58994444828204</v>
+      </c>
+      <c r="AF3">
+        <v>23.067708140215757</v>
+      </c>
+      <c r="AG3">
+        <v>22.873244855918813</v>
+      </c>
+      <c r="AH3">
+        <v>26.81660330799167</v>
+      </c>
+      <c r="AI3">
+        <v>24.900778015674916</v>
+      </c>
+      <c r="AJ3">
+        <v>18.262670205213624</v>
+      </c>
+      <c r="AK3">
+        <v>29.040618739468641</v>
+      </c>
+      <c r="AL3">
+        <v>20.650178893572104</v>
+      </c>
+      <c r="AM3">
         <v>15.794170038206403</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>33.035550857034877</v>
       </c>
-      <c r="F3">
-        <v>19.091621062499428</v>
-      </c>
-      <c r="G3">
-        <v>17.291835890302536</v>
-      </c>
-      <c r="H3">
-        <v>28.781429473825597</v>
-      </c>
-      <c r="I3">
-        <v>24.258816971533179</v>
-      </c>
-      <c r="J3">
-        <v>19.344599806875465</v>
-      </c>
-      <c r="K3">
-        <v>-1.24457666316016</v>
-      </c>
-      <c r="L3">
-        <v>18.971068370354601</v>
-      </c>
-      <c r="M3">
-        <v>33.701073792815805</v>
-      </c>
-      <c r="N3">
-        <v>21.358752969655484</v>
-      </c>
-      <c r="O3">
-        <v>22.112663741708218</v>
-      </c>
-      <c r="P3">
-        <v>16.21028747829348</v>
-      </c>
-      <c r="Q3">
-        <v>19.280331552861526</v>
-      </c>
-      <c r="R3">
-        <v>31.332085059316285</v>
-      </c>
-      <c r="S3">
-        <v>12.764520740987734</v>
-      </c>
-      <c r="T3">
-        <v>15.569950684318201</v>
-      </c>
-      <c r="U3">
-        <v>15.233175531045333</v>
-      </c>
-      <c r="V3">
-        <v>12.341135889048928</v>
-      </c>
-      <c r="W3">
-        <v>21.431993477572348</v>
-      </c>
-      <c r="X3">
-        <v>27.051624898691614</v>
-      </c>
-      <c r="Y3">
-        <v>3.3237583715118717</v>
-      </c>
-      <c r="Z3">
-        <v>8.9038607824384144</v>
-      </c>
-      <c r="AA3">
-        <v>19.498375661900752</v>
-      </c>
-      <c r="AB3">
-        <v>18.43107761863962</v>
-      </c>
-      <c r="AC3">
-        <v>20.515386327933129</v>
-      </c>
-      <c r="AD3">
-        <v>17.602952210498984</v>
-      </c>
-      <c r="AE3">
-        <v>16.589944431073093</v>
-      </c>
-      <c r="AF3">
-        <v>23.067708110832541</v>
-      </c>
-      <c r="AG3">
-        <v>22.87324485253157</v>
-      </c>
-      <c r="AH3">
-        <v>26.816603249389686</v>
-      </c>
-      <c r="AI3">
-        <v>24.900777946588221</v>
-      </c>
-      <c r="AJ3">
-        <v>18.262670177614609</v>
-      </c>
-      <c r="AK3">
-        <v>29.040618720527618</v>
-      </c>
-      <c r="AL3">
-        <v>20.650178870812113</v>
-      </c>
-      <c r="AM3">
-        <v>15.794169960279703</v>
-      </c>
-      <c r="AN3">
-        <v>33.035550810376435</v>
-      </c>
       <c r="AO3">
-        <v>15.776082826633285</v>
+        <v>15.776082856866367</v>
       </c>
       <c r="AP3">
-        <v>22.236703644006354</v>
+        <v>22.236703687325644</v>
       </c>
       <c r="AQ3">
-        <v>16.342677605161498</v>
+        <v>16.342677613145952</v>
       </c>
       <c r="AR3">
-        <v>11.439287031187689</v>
+        <v>11.439287038106784</v>
       </c>
       <c r="AS3">
-        <v>25.028604916378356</v>
+        <v>25.028604985087782</v>
       </c>
       <c r="AT3">
-        <v>10.141117580582716</v>
+        <v>10.141117636299214</v>
       </c>
       <c r="AU3">
-        <v>23.224007809949512</v>
+        <v>23.224007821904252</v>
       </c>
       <c r="AV3">
-        <v>21.325887840472546</v>
+        <v>21.325887931631826</v>
       </c>
       <c r="AW3">
-        <v>25.480796825515029</v>
+        <v>25.480796889612975</v>
       </c>
       <c r="AX3">
-        <v>23.688429180472838</v>
+        <v>23.688429228641155</v>
       </c>
       <c r="AY3">
-        <v>4.2833138577856857</v>
+        <v>4.2833138676537033</v>
       </c>
     </row>
   </sheetData>
